--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.1201829124331</v>
+        <v>23.128865</v>
       </c>
       <c r="H2">
-        <v>16.1201829124331</v>
+        <v>69.386595</v>
       </c>
       <c r="I2">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="J2">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>1700.948689513825</v>
+        <v>2602.30705426008</v>
       </c>
       <c r="R2">
-        <v>1700.948689513825</v>
+        <v>23420.76348834072</v>
       </c>
       <c r="S2">
-        <v>0.2618212880627986</v>
+        <v>0.2593339377524517</v>
       </c>
       <c r="T2">
-        <v>0.2618212880627986</v>
+        <v>0.2593339377524517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.1201829124331</v>
+        <v>23.128865</v>
       </c>
       <c r="H3">
-        <v>16.1201829124331</v>
+        <v>69.386595</v>
       </c>
       <c r="I3">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="J3">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>1711.568399777997</v>
+        <v>2458.93293166109</v>
       </c>
       <c r="R3">
-        <v>1711.568399777997</v>
+        <v>22130.39638494981</v>
       </c>
       <c r="S3">
-        <v>0.2634559442034338</v>
+        <v>0.2450459329128495</v>
       </c>
       <c r="T3">
-        <v>0.2634559442034338</v>
+        <v>0.2450459329128496</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.1201829124331</v>
+        <v>23.128865</v>
       </c>
       <c r="H4">
-        <v>16.1201829124331</v>
+        <v>69.386595</v>
       </c>
       <c r="I4">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="J4">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>1996.717386741277</v>
+        <v>2883.976462831197</v>
       </c>
       <c r="R4">
-        <v>1996.717386741277</v>
+        <v>25955.78816548077</v>
       </c>
       <c r="S4">
-        <v>0.3073479648838855</v>
+        <v>0.2874038139607846</v>
       </c>
       <c r="T4">
-        <v>0.3073479648838855</v>
+        <v>0.2874038139607846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.13464063309674</v>
+        <v>1.158105666666667</v>
       </c>
       <c r="H5">
-        <v>1.13464063309674</v>
+        <v>3.474317</v>
       </c>
       <c r="I5">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="J5">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>119.7235483256522</v>
+        <v>130.302396851088</v>
       </c>
       <c r="R5">
-        <v>119.7235483256522</v>
+        <v>1172.721571659792</v>
       </c>
       <c r="S5">
-        <v>0.01842864151477168</v>
+        <v>0.01298533684511086</v>
       </c>
       <c r="T5">
-        <v>0.01842864151477168</v>
+        <v>0.01298533684511086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.13464063309674</v>
+        <v>1.158105666666667</v>
       </c>
       <c r="H6">
-        <v>1.13464063309674</v>
+        <v>3.474317</v>
       </c>
       <c r="I6">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="J6">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>120.4710308351807</v>
+        <v>123.1233855232407</v>
       </c>
       <c r="R6">
-        <v>120.4710308351807</v>
+        <v>1108.110469709166</v>
       </c>
       <c r="S6">
-        <v>0.0185436989733862</v>
+        <v>0.0122699096345623</v>
       </c>
       <c r="T6">
-        <v>0.0185436989733862</v>
+        <v>0.01226990963456231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13464063309674</v>
+        <v>1.158105666666667</v>
       </c>
       <c r="H7">
-        <v>1.13464063309674</v>
+        <v>3.474317</v>
       </c>
       <c r="I7">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="J7">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>140.5416236350533</v>
+        <v>144.4061126275802</v>
       </c>
       <c r="R7">
-        <v>140.5416236350533</v>
+        <v>1299.655013648222</v>
       </c>
       <c r="S7">
-        <v>0.02163309754927657</v>
+        <v>0.01439084821367573</v>
       </c>
       <c r="T7">
-        <v>0.02163309754927657</v>
+        <v>0.01439084821367573</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.10584793980201</v>
+        <v>4.924119999999999</v>
       </c>
       <c r="H8">
-        <v>2.10584793980201</v>
+        <v>14.77236</v>
       </c>
       <c r="I8">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="J8">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>222.2021495028418</v>
+        <v>554.0294438150399</v>
       </c>
       <c r="R8">
-        <v>222.2021495028418</v>
+        <v>4986.264994335359</v>
       </c>
       <c r="S8">
-        <v>0.03420282654721651</v>
+        <v>0.05521202313929379</v>
       </c>
       <c r="T8">
-        <v>0.03420282654721651</v>
+        <v>0.05521202313929379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.10584793980201</v>
+        <v>4.924119999999999</v>
       </c>
       <c r="H9">
-        <v>2.10584793980201</v>
+        <v>14.77236</v>
       </c>
       <c r="I9">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="J9">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>223.5894473457126</v>
+        <v>523.50518831992</v>
       </c>
       <c r="R9">
-        <v>223.5894473457126</v>
+        <v>4711.54669487928</v>
       </c>
       <c r="S9">
-        <v>0.0344163686195826</v>
+        <v>0.05217011639675447</v>
       </c>
       <c r="T9">
-        <v>0.0344163686195826</v>
+        <v>0.05217011639675448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.10584793980201</v>
+        <v>4.924119999999999</v>
       </c>
       <c r="H10">
-        <v>2.10584793980201</v>
+        <v>14.77236</v>
       </c>
       <c r="I10">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="J10">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>260.8396702492082</v>
+        <v>613.9966738599733</v>
       </c>
       <c r="R10">
-        <v>260.8396702492082</v>
+        <v>5525.97006473976</v>
       </c>
       <c r="S10">
-        <v>0.04015016964564836</v>
+        <v>0.06118808114451697</v>
       </c>
       <c r="T10">
-        <v>0.04015016964564836</v>
+        <v>0.06118808114451698</v>
       </c>
     </row>
   </sheetData>
